--- a/Multiplier.xlsx
+++ b/Multiplier.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
-  <si>
-    <t>N/A</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="72">
   <si>
     <t>Body Ache</t>
   </si>
@@ -200,6 +197,39 @@
   </si>
   <si>
     <t>Rectum Pain</t>
+  </si>
+  <si>
+    <t>Anemia</t>
+  </si>
+  <si>
+    <t>Asthma</t>
+  </si>
+  <si>
+    <t>Cataracts</t>
+  </si>
+  <si>
+    <t>Cold</t>
+  </si>
+  <si>
+    <t>Cold Sore</t>
+  </si>
+  <si>
+    <t>Crohn's Disorder</t>
+  </si>
+  <si>
+    <t>Diabetes Type I</t>
+  </si>
+  <si>
+    <t>Flu</t>
+  </si>
+  <si>
+    <t>HIV</t>
+  </si>
+  <si>
+    <t>Meningitis</t>
+  </si>
+  <si>
+    <t>NaN</t>
   </si>
 </sst>
 </file>
@@ -547,10 +577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BK1"/>
+  <dimension ref="A1:BK11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.7109375" defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -560,193 +590,429 @@
   <sheetData>
     <row r="1" spans="1:63" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:63" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="2">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2">
         <v>4</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="D2" s="2">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2">
+        <v>12</v>
+      </c>
+      <c r="H2" s="2">
+        <v>14</v>
+      </c>
+      <c r="I2" s="2">
+        <v>16</v>
+      </c>
+      <c r="J2" s="2">
+        <v>18</v>
+      </c>
+      <c r="K2" s="2">
+        <v>20</v>
+      </c>
+      <c r="L2" s="2">
+        <v>22</v>
+      </c>
+      <c r="M2" s="2">
+        <v>24</v>
+      </c>
+      <c r="N2" s="2">
+        <v>26</v>
+      </c>
+      <c r="O2" s="2">
+        <v>28</v>
+      </c>
+      <c r="P2" s="2">
+        <v>30</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>32</v>
+      </c>
+      <c r="R2" s="2">
         <v>34</v>
       </c>
-      <c r="AK1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1" t="s">
+      <c r="S2" s="2">
         <v>36</v>
       </c>
-      <c r="AM1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1" t="s">
+      <c r="T2" s="2">
         <v>38</v>
       </c>
-      <c r="AO1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1" t="s">
+      <c r="U2" s="2">
         <v>40</v>
       </c>
-      <c r="AQ1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR1" s="1" t="s">
+      <c r="V2" s="2">
         <v>42</v>
       </c>
-      <c r="AS1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT1" s="1" t="s">
+      <c r="W2" s="2">
         <v>44</v>
       </c>
-      <c r="AU1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV1" s="1" t="s">
+      <c r="X2" s="2">
         <v>46</v>
       </c>
-      <c r="AW1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AX1" s="1" t="s">
+      <c r="Y2" s="2">
         <v>48</v>
       </c>
-      <c r="AY1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="Z2" s="2">
         <v>50</v>
       </c>
-      <c r="BA1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BB1" s="1" t="s">
+      <c r="AA2" s="2">
         <v>52</v>
       </c>
-      <c r="BC1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BD1" s="1" t="s">
+      <c r="AB2" s="2">
         <v>54</v>
       </c>
-      <c r="BE1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BF1" s="1" t="s">
+      <c r="AC2" s="2">
         <v>56</v>
       </c>
-      <c r="BG1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BH1" s="1" t="s">
+      <c r="AD2" s="2">
         <v>58</v>
       </c>
-      <c r="BI1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="AE2" s="2">
         <v>60</v>
       </c>
-      <c r="BK1" s="1" t="s">
-        <v>61</v>
+      <c r="AF2" s="2">
+        <v>62</v>
+      </c>
+      <c r="AG2" s="2">
+        <v>64</v>
+      </c>
+      <c r="AH2" s="2">
+        <v>66</v>
+      </c>
+      <c r="AI2" s="2">
+        <v>68</v>
+      </c>
+      <c r="AJ2" s="2">
+        <v>70</v>
+      </c>
+      <c r="AK2" s="2">
+        <v>72</v>
+      </c>
+      <c r="AL2" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM2" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN2" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO2" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP2" s="2">
+        <v>82</v>
+      </c>
+      <c r="AQ2" s="2">
+        <v>84</v>
+      </c>
+      <c r="AR2" s="2">
+        <v>86</v>
+      </c>
+      <c r="AS2" s="2">
+        <v>88</v>
+      </c>
+      <c r="AT2" s="2">
+        <v>90</v>
+      </c>
+      <c r="AU2" s="2">
+        <v>92</v>
+      </c>
+      <c r="AV2" s="2">
+        <v>94</v>
+      </c>
+      <c r="AW2" s="2">
+        <v>96</v>
+      </c>
+      <c r="AX2" s="2">
+        <v>98</v>
+      </c>
+      <c r="AY2" s="2">
+        <v>100</v>
+      </c>
+      <c r="AZ2" s="2">
+        <v>102</v>
+      </c>
+      <c r="BA2" s="2">
+        <v>104</v>
+      </c>
+      <c r="BB2" s="2">
+        <v>106</v>
+      </c>
+      <c r="BC2" s="2">
+        <v>108</v>
+      </c>
+      <c r="BD2" s="2">
+        <v>110</v>
+      </c>
+      <c r="BE2" s="2">
+        <v>112</v>
+      </c>
+      <c r="BF2" s="2">
+        <v>114</v>
+      </c>
+      <c r="BG2" s="2">
+        <v>116</v>
+      </c>
+      <c r="BH2" s="2">
+        <v>118</v>
+      </c>
+      <c r="BI2" s="2">
+        <v>120</v>
+      </c>
+      <c r="BJ2" s="2">
+        <v>122</v>
+      </c>
+      <c r="BK2" s="2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:63" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:63" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:63" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:63" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:63" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:63" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:63" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:63" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:63" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/Multiplier.xlsx
+++ b/Multiplier.xlsx
@@ -1,20 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27510"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Mason/Dropbox/ECE 4335/Repository/Senior Design/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="72">
   <si>
     <t>Body Ache</t>
   </si>
@@ -236,12 +249,25 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -265,12 +291,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -336,9 +371,9 @@
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -371,9 +406,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -577,18 +612,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BK11"/>
+  <dimension ref="A1:BK74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" zoomScale="164" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.7109375" defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.6640625" defaultRowHeight="17" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="17.7109375" style="2"/>
+    <col min="1" max="16384" width="17.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:63" s="1" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>71</v>
       </c>
@@ -779,243 +814,1424 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:63" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:63" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B2" s="2">
+        <v>24</v>
+      </c>
+      <c r="C2" s="2">
+        <v>44</v>
+      </c>
+      <c r="D2" s="2">
+        <v>42</v>
+      </c>
+      <c r="E2" s="2">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2">
+        <v>124</v>
+      </c>
+      <c r="G2" s="2">
+        <v>4</v>
+      </c>
+      <c r="H2" s="2">
         <v>2</v>
       </c>
-      <c r="C2" s="2">
-        <v>4</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="I2" s="2">
+        <v>122</v>
+      </c>
+      <c r="J2" s="2">
+        <v>120</v>
+      </c>
+      <c r="K2" s="2">
+        <v>118</v>
+      </c>
+      <c r="L2" s="2">
+        <v>116</v>
+      </c>
+      <c r="M2" s="2">
+        <v>114</v>
+      </c>
+      <c r="N2" s="2">
+        <v>112</v>
+      </c>
+      <c r="O2" s="2">
+        <v>110</v>
+      </c>
+      <c r="P2" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>108</v>
+      </c>
+      <c r="R2" s="2">
+        <v>46</v>
+      </c>
+      <c r="S2" s="2">
+        <v>28</v>
+      </c>
+      <c r="T2" s="2">
+        <v>26</v>
+      </c>
+      <c r="U2" s="2">
+        <v>106</v>
+      </c>
+      <c r="V2" s="2">
+        <v>40</v>
+      </c>
+      <c r="W2" s="2">
+        <v>104</v>
+      </c>
+      <c r="X2" s="2">
+        <v>22</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>102</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>18</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>16</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>100</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>98</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>96</v>
+      </c>
+      <c r="AF2" s="2">
+        <v>94</v>
+      </c>
+      <c r="AG2" s="2">
+        <v>92</v>
+      </c>
+      <c r="AH2" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI2" s="2">
+        <v>12</v>
+      </c>
+      <c r="AJ2" s="2">
+        <v>90</v>
+      </c>
+      <c r="AK2" s="2">
+        <v>88</v>
+      </c>
+      <c r="AL2" s="2">
         <v>6</v>
       </c>
-      <c r="E2" s="2">
-        <v>8</v>
-      </c>
-      <c r="F2" s="2">
-        <v>10</v>
-      </c>
-      <c r="G2" s="2">
-        <v>12</v>
-      </c>
-      <c r="H2" s="2">
-        <v>14</v>
-      </c>
-      <c r="I2" s="2">
-        <v>16</v>
-      </c>
-      <c r="J2" s="2">
-        <v>18</v>
-      </c>
-      <c r="K2" s="2">
-        <v>20</v>
-      </c>
-      <c r="L2" s="2">
-        <v>22</v>
-      </c>
-      <c r="M2" s="2">
-        <v>24</v>
-      </c>
-      <c r="N2" s="2">
-        <v>26</v>
-      </c>
-      <c r="O2" s="2">
-        <v>28</v>
-      </c>
-      <c r="P2" s="2">
-        <v>30</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>32</v>
-      </c>
-      <c r="R2" s="2">
-        <v>34</v>
-      </c>
-      <c r="S2" s="2">
+      <c r="AM2" s="2">
         <v>36</v>
       </c>
-      <c r="T2" s="2">
-        <v>38</v>
-      </c>
-      <c r="U2" s="2">
-        <v>40</v>
-      </c>
-      <c r="V2" s="2">
-        <v>42</v>
-      </c>
-      <c r="W2" s="2">
-        <v>44</v>
-      </c>
-      <c r="X2" s="2">
-        <v>46</v>
-      </c>
-      <c r="Y2" s="2">
-        <v>48</v>
-      </c>
-      <c r="Z2" s="2">
-        <v>50</v>
-      </c>
-      <c r="AA2" s="2">
-        <v>52</v>
-      </c>
-      <c r="AB2" s="2">
-        <v>54</v>
-      </c>
-      <c r="AC2" s="2">
-        <v>56</v>
-      </c>
-      <c r="AD2" s="2">
-        <v>58</v>
-      </c>
-      <c r="AE2" s="2">
-        <v>60</v>
-      </c>
-      <c r="AF2" s="2">
-        <v>62</v>
-      </c>
-      <c r="AG2" s="2">
-        <v>64</v>
-      </c>
-      <c r="AH2" s="2">
-        <v>66</v>
-      </c>
-      <c r="AI2" s="2">
-        <v>68</v>
-      </c>
-      <c r="AJ2" s="2">
-        <v>70</v>
-      </c>
-      <c r="AK2" s="2">
-        <v>72</v>
-      </c>
-      <c r="AL2" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM2" s="2">
-        <v>76</v>
-      </c>
       <c r="AN2" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AO2" s="2">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="AP2" s="2">
         <v>82</v>
       </c>
       <c r="AQ2" s="2">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="AR2" s="2">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="AS2" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AT2" s="2">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="AU2" s="2">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="AV2" s="2">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="AW2" s="2">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="AX2" s="2">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="AY2" s="2">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="AZ2" s="2">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="BA2" s="2">
-        <v>104</v>
+        <v>34</v>
       </c>
       <c r="BB2" s="2">
-        <v>106</v>
+        <v>62</v>
       </c>
       <c r="BC2" s="2">
-        <v>108</v>
+        <v>60</v>
       </c>
       <c r="BD2" s="2">
-        <v>110</v>
+        <v>58</v>
       </c>
       <c r="BE2" s="2">
-        <v>112</v>
+        <v>56</v>
       </c>
       <c r="BF2" s="2">
-        <v>114</v>
+        <v>32</v>
       </c>
       <c r="BG2" s="2">
-        <v>116</v>
+        <v>54</v>
       </c>
       <c r="BH2" s="2">
-        <v>118</v>
+        <v>30</v>
       </c>
       <c r="BI2" s="2">
-        <v>120</v>
+        <v>52</v>
       </c>
       <c r="BJ2" s="2">
-        <v>122</v>
+        <v>50</v>
       </c>
       <c r="BK2" s="2">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="3" spans="1:63" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:63" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:63" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:63" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="5" spans="1:63" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="5">
+        <f>HLOOKUP(B1,$B$6:$BK7,2,FALSE)</f>
+        <v>24</v>
+      </c>
+      <c r="C4" s="5">
+        <f>HLOOKUP(C1,$B$6:$BK7,2,FALSE)</f>
+        <v>44</v>
+      </c>
+      <c r="D4" s="5">
+        <f>HLOOKUP(D1,$B$6:$BK7,2,FALSE)</f>
+        <v>42</v>
+      </c>
+      <c r="E4" s="5">
+        <f>HLOOKUP(E1,$B$6:$BK7,2,FALSE)</f>
+        <v>12</v>
+      </c>
+      <c r="F4" s="5">
+        <f>HLOOKUP(F1,$B$6:$BK7,2,FALSE)</f>
+        <v>124</v>
+      </c>
+      <c r="G4" s="5">
+        <f>HLOOKUP(G1,$B$6:$BK7,2,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="H4" s="5">
+        <f>HLOOKUP(H1,$B$6:$BK7,2,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="I4" s="5">
+        <f>HLOOKUP(I1,$B$6:$BK7,2,FALSE)</f>
+        <v>122</v>
+      </c>
+      <c r="J4" s="5">
+        <f>HLOOKUP(J1,$B$6:$BK7,2,FALSE)</f>
+        <v>120</v>
+      </c>
+      <c r="K4" s="5">
+        <f>HLOOKUP(K1,$B$6:$BK7,2,FALSE)</f>
+        <v>118</v>
+      </c>
+      <c r="L4" s="5">
+        <f>HLOOKUP(L1,$B$6:$BK7,2,FALSE)</f>
+        <v>116</v>
+      </c>
+      <c r="M4" s="5">
+        <f>HLOOKUP(M1,$B$6:$BK7,2,FALSE)</f>
+        <v>114</v>
+      </c>
+      <c r="N4" s="5">
+        <f>HLOOKUP(N1,$B$6:$BK7,2,FALSE)</f>
+        <v>112</v>
+      </c>
+      <c r="O4" s="5">
+        <f>HLOOKUP(O1,$B$6:$BK7,2,FALSE)</f>
+        <v>110</v>
+      </c>
+      <c r="P4" s="5">
+        <f>HLOOKUP(P1,$B$6:$BK7,2,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="Q4" s="5">
+        <f>HLOOKUP(Q1,$B$6:$BK7,2,FALSE)</f>
+        <v>108</v>
+      </c>
+      <c r="R4" s="5">
+        <f>HLOOKUP(R1,$B$6:$BK7,2,FALSE)</f>
+        <v>46</v>
+      </c>
+      <c r="S4" s="5">
+        <f>HLOOKUP(S1,$B$6:$BK7,2,FALSE)</f>
+        <v>28</v>
+      </c>
+      <c r="T4" s="5">
+        <f>HLOOKUP(T1,$B$6:$BK7,2,FALSE)</f>
+        <v>26</v>
+      </c>
+      <c r="U4" s="5">
+        <f>HLOOKUP(U1,$B$6:$BK7,2,FALSE)</f>
+        <v>106</v>
+      </c>
+      <c r="V4" s="5">
+        <f>HLOOKUP(V1,$B$6:$BK7,2,FALSE)</f>
+        <v>40</v>
+      </c>
+      <c r="W4" s="5">
+        <f>HLOOKUP(W1,$B$6:$BK7,2,FALSE)</f>
+        <v>104</v>
+      </c>
+      <c r="X4" s="5">
+        <f>HLOOKUP(X1,$B$6:$BK7,2,FALSE)</f>
+        <v>22</v>
+      </c>
+      <c r="Y4" s="5">
+        <f>HLOOKUP(Y1,$B$6:$BK7,2,FALSE)</f>
+        <v>102</v>
+      </c>
+      <c r="Z4" s="5">
+        <f>HLOOKUP(Z1,$B$6:$BK7,2,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="AA4" s="5">
+        <f>HLOOKUP(AA1,$B$6:$BK7,2,FALSE)</f>
+        <v>18</v>
+      </c>
+      <c r="AB4" s="5">
+        <f>HLOOKUP(AB1,$B$6:$BK7,2,FALSE)</f>
+        <v>16</v>
+      </c>
+      <c r="AC4" s="5">
+        <f>HLOOKUP(AC1,$B$6:$BK7,2,FALSE)</f>
+        <v>100</v>
+      </c>
+      <c r="AD4" s="5">
+        <f>HLOOKUP(AD1,$B$6:$BK7,2,FALSE)</f>
+        <v>98</v>
+      </c>
+      <c r="AE4" s="5">
+        <f>HLOOKUP(AE1,$B$6:$BK7,2,FALSE)</f>
+        <v>96</v>
+      </c>
+      <c r="AF4" s="5">
+        <f>HLOOKUP(AF1,$B$6:$BK7,2,FALSE)</f>
+        <v>94</v>
+      </c>
+      <c r="AG4" s="5">
+        <f>HLOOKUP(AG1,$B$6:$BK7,2,FALSE)</f>
+        <v>92</v>
+      </c>
+      <c r="AH4" s="5">
+        <f>HLOOKUP(AH1,$B$6:$BK7,2,FALSE)</f>
+        <v>38</v>
+      </c>
+      <c r="AI4" s="5">
+        <f>HLOOKUP(AI1,$B$6:$BK7,2,FALSE)</f>
+        <v>12</v>
+      </c>
+      <c r="AJ4" s="5">
+        <f>HLOOKUP(AJ1,$B$6:$BK7,2,FALSE)</f>
+        <v>90</v>
+      </c>
+      <c r="AK4" s="5">
+        <f>HLOOKUP(AK1,$B$6:$BK7,2,FALSE)</f>
+        <v>88</v>
+      </c>
+      <c r="AL4" s="5">
+        <f>HLOOKUP(AL1,$B$6:$BK7,2,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="AM4" s="5">
+        <f>HLOOKUP(AM1,$B$6:$BK7,2,FALSE)</f>
+        <v>36</v>
+      </c>
+      <c r="AN4" s="5">
+        <f>HLOOKUP(AN1,$B$6:$BK7,2,FALSE)</f>
+        <v>86</v>
+      </c>
+      <c r="AO4" s="5">
+        <f>HLOOKUP(AO1,$B$6:$BK7,2,FALSE)</f>
+        <v>84</v>
+      </c>
+      <c r="AP4" s="5">
+        <f>HLOOKUP(AP1,$B$6:$BK7,2,FALSE)</f>
+        <v>82</v>
+      </c>
+      <c r="AQ4" s="5">
+        <f>HLOOKUP(AQ1,$B$6:$BK7,2,FALSE)</f>
+        <v>80</v>
+      </c>
+      <c r="AR4" s="5">
+        <f>HLOOKUP(AR1,$B$6:$BK7,2,FALSE)</f>
+        <v>14</v>
+      </c>
+      <c r="AS4" s="5">
+        <f>HLOOKUP(AS1,$B$6:$BK7,2,FALSE)</f>
+        <v>78</v>
+      </c>
+      <c r="AT4" s="5">
+        <f>HLOOKUP(AT1,$B$6:$BK7,2,FALSE)</f>
+        <v>76</v>
+      </c>
+      <c r="AU4" s="5">
+        <f>HLOOKUP(AU1,$B$6:$BK7,2,FALSE)</f>
+        <v>74</v>
+      </c>
+      <c r="AV4" s="5">
+        <f>HLOOKUP(AV1,$B$6:$BK7,2,FALSE)</f>
+        <v>72</v>
+      </c>
+      <c r="AW4" s="5">
+        <f>HLOOKUP(AW1,$B$6:$BK7,2,FALSE)</f>
+        <v>70</v>
+      </c>
+      <c r="AX4" s="5">
+        <f>HLOOKUP(AX1,$B$6:$BK7,2,FALSE)</f>
+        <v>68</v>
+      </c>
+      <c r="AY4" s="5">
+        <f>HLOOKUP(AY1,$B$6:$BK7,2,FALSE)</f>
+        <v>66</v>
+      </c>
+      <c r="AZ4" s="5">
+        <f>HLOOKUP(AZ1,$B$6:$BK7,2,FALSE)</f>
+        <v>64</v>
+      </c>
+      <c r="BA4" s="5">
+        <f>HLOOKUP(BA1,$B$6:$BK7,2,FALSE)</f>
+        <v>34</v>
+      </c>
+      <c r="BB4" s="5">
+        <f>HLOOKUP(BB1,$B$6:$BK7,2,FALSE)</f>
+        <v>62</v>
+      </c>
+      <c r="BC4" s="5">
+        <f>HLOOKUP(BC1,$B$6:$BK7,2,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="BD4" s="5">
+        <f>HLOOKUP(BD1,$B$6:$BK7,2,FALSE)</f>
+        <v>58</v>
+      </c>
+      <c r="BE4" s="5">
+        <f>HLOOKUP(BE1,$B$6:$BK7,2,FALSE)</f>
+        <v>56</v>
+      </c>
+      <c r="BF4" s="5">
+        <f>HLOOKUP(BF1,$B$6:$BK7,2,FALSE)</f>
+        <v>32</v>
+      </c>
+      <c r="BG4" s="5">
+        <f>HLOOKUP(BG1,$B$6:$BK7,2,FALSE)</f>
+        <v>54</v>
+      </c>
+      <c r="BH4" s="5">
+        <f>HLOOKUP(BH1,$B$6:$BK7,2,FALSE)</f>
+        <v>30</v>
+      </c>
+      <c r="BI4" s="5">
+        <f>HLOOKUP(BI1,$B$6:$BK7,2,FALSE)</f>
+        <v>52</v>
+      </c>
+      <c r="BJ4" s="5">
+        <f>HLOOKUP(BJ1,$B$6:$BK7,2,FALSE)</f>
+        <v>50</v>
+      </c>
+      <c r="BK4" s="5">
+        <f>HLOOKUP(BK1,$B$6:$BK7,2,FALSE)</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:63" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:63" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:63" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="7" spans="1:63" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AL6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AO6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AR6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AS6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AT6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AU6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AV6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AW6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AX6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AY6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AZ6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="BA6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="BB6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="BC6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="BD6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="BE6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="BF6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="BG6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="BH6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="BI6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="BJ6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BK6" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:63" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="8" spans="1:63" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>32</v>
+      </c>
+      <c r="C7" s="1">
+        <v>66</v>
+      </c>
+      <c r="D7" s="1">
+        <v>98</v>
+      </c>
+      <c r="E7" s="1">
+        <v>96</v>
+      </c>
+      <c r="F7" s="1">
+        <v>64</v>
+      </c>
+      <c r="G7" s="1">
+        <v>54</v>
+      </c>
+      <c r="H7" s="1">
+        <v>94</v>
+      </c>
+      <c r="I7" s="1">
+        <v>24</v>
+      </c>
+      <c r="J7" s="1">
+        <v>92</v>
+      </c>
+      <c r="K7" s="1">
+        <v>34</v>
+      </c>
+      <c r="L7" s="1">
+        <v>44</v>
+      </c>
+      <c r="M7" s="1">
+        <v>38</v>
+      </c>
+      <c r="N7" s="1">
+        <v>42</v>
+      </c>
+      <c r="O7" s="1">
+        <v>12</v>
+      </c>
+      <c r="P7" s="1">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>124</v>
+      </c>
+      <c r="R7" s="1">
+        <v>30</v>
+      </c>
+      <c r="S7" s="1">
+        <v>90</v>
+      </c>
+      <c r="T7" s="1">
+        <v>4</v>
+      </c>
+      <c r="U7" s="1">
+        <v>2</v>
+      </c>
+      <c r="V7" s="1">
+        <v>62</v>
+      </c>
+      <c r="W7" s="1">
+        <v>122</v>
+      </c>
+      <c r="X7" s="1">
+        <v>52</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>88</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>6</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>120</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>118</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>116</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>114</v>
+      </c>
+      <c r="AE7" s="1">
+        <v>112</v>
+      </c>
+      <c r="AF7" s="1">
+        <v>110</v>
+      </c>
+      <c r="AG7" s="1">
+        <v>50</v>
+      </c>
+      <c r="AH7" s="1">
+        <v>8</v>
+      </c>
+      <c r="AI7" s="1">
+        <v>108</v>
+      </c>
+      <c r="AJ7" s="1">
+        <v>46</v>
+      </c>
+      <c r="AK7" s="1">
+        <v>28</v>
+      </c>
+      <c r="AL7" s="1">
+        <v>26</v>
+      </c>
+      <c r="AM7" s="1">
+        <v>36</v>
+      </c>
+      <c r="AN7" s="1">
+        <v>106</v>
+      </c>
+      <c r="AO7" s="1">
+        <v>60</v>
+      </c>
+      <c r="AP7" s="1">
+        <v>58</v>
+      </c>
+      <c r="AQ7" s="1">
+        <v>86</v>
+      </c>
+      <c r="AR7" s="1">
+        <v>48</v>
+      </c>
+      <c r="AS7" s="1">
+        <v>84</v>
+      </c>
+      <c r="AT7" s="1">
+        <v>40</v>
+      </c>
+      <c r="AU7" s="1">
+        <v>104</v>
+      </c>
+      <c r="AV7" s="1">
+        <v>82</v>
+      </c>
+      <c r="AW7" s="1">
+        <v>22</v>
+      </c>
+      <c r="AX7" s="1">
+        <v>102</v>
+      </c>
+      <c r="AY7" s="1">
+        <v>20</v>
+      </c>
+      <c r="AZ7" s="1">
+        <v>80</v>
+      </c>
+      <c r="BA7" s="1">
+        <v>14</v>
+      </c>
+      <c r="BB7" s="1">
+        <v>18</v>
+      </c>
+      <c r="BC7" s="1">
+        <v>78</v>
+      </c>
+      <c r="BD7" s="1">
+        <v>76</v>
+      </c>
+      <c r="BE7" s="1">
+        <v>74</v>
+      </c>
+      <c r="BF7" s="1">
+        <v>72</v>
+      </c>
+      <c r="BG7" s="1">
+        <v>16</v>
+      </c>
+      <c r="BH7" s="1">
+        <v>70</v>
+      </c>
+      <c r="BI7" s="1">
+        <v>100</v>
+      </c>
+      <c r="BJ7" s="1">
+        <v>56</v>
+      </c>
+      <c r="BK7" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:63" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:63" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:63" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:63" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:63" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:63" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:63" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>70</v>
       </c>
     </row>
+    <row r="13" spans="1:63" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:63" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:63" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:63" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="1"/>
+      <c r="C26" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="1">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="1"/>
+      <c r="C32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" s="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="1"/>
+      <c r="C34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="1">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="1"/>
+      <c r="C35" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35" s="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="1"/>
+      <c r="C36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D36" s="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="1"/>
+      <c r="C37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D37" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="1"/>
+      <c r="C38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="1"/>
+      <c r="C39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="1">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="1"/>
+      <c r="C40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="1"/>
+      <c r="C41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="1"/>
+      <c r="C42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" s="1">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="1"/>
+      <c r="C43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="1"/>
+      <c r="C44" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D44" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="1"/>
+      <c r="C45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="1"/>
+      <c r="C46" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" s="1">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="1"/>
+      <c r="C47" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="1"/>
+      <c r="C48" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="1"/>
+      <c r="C49" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="1"/>
+      <c r="C50" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D50" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="1"/>
+      <c r="C51" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D51" s="1">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="1"/>
+      <c r="C52" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D52" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="1"/>
+      <c r="C53" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D53" s="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="1"/>
+      <c r="C54" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D54" s="1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="1"/>
+      <c r="C55" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D55" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="1"/>
+      <c r="C56" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D56" s="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="1"/>
+      <c r="C57" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D57" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="1"/>
+      <c r="C58" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D58" s="1">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="1"/>
+      <c r="C59" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D59" s="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="1"/>
+      <c r="C60" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D60" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="1"/>
+      <c r="C61" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D61" s="1">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="1"/>
+      <c r="C62" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D62" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="1"/>
+      <c r="C63" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D63" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="1"/>
+      <c r="C64" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D64" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="1"/>
+      <c r="C65" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D65" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="1"/>
+      <c r="C66" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D66" s="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="1"/>
+      <c r="C67" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D67" s="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="1"/>
+      <c r="C68" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D68" s="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="1"/>
+      <c r="C69" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D69" s="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B70" s="1"/>
+      <c r="C70" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D70" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="1"/>
+      <c r="C71" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D71" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="1"/>
+      <c r="C72" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D72" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="1"/>
+      <c r="C73" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D73" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B74" s="1"/>
+      <c r="C74" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D74" s="1">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState ref="C13:D74">
+    <sortCondition ref="C13"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>